--- a/data/trans_orig/P39A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBE6187-5DEF-4851-9D89-29BE69E98120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0473A9FD-5BDA-4E86-BC6F-53BC7283335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C24623E-1A54-4D99-9769-DA94E836420F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A08E1EF7-3467-4790-B834-91D471EF1F10}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="840">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -76,2509 +76,2488 @@
     <t>16,19%</t>
   </si>
   <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>27,05%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>25,94%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
 </sst>
 </file>
@@ -2990,7 +2969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854FD8CB-B832-41ED-80C4-2C085E103C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD8799C-C085-464E-8F95-5A8B8AFBBEFA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3440,10 +3419,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -3452,13 +3431,13 @@
         <v>125412</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3452,13 @@
         <v>162063</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
@@ -3488,13 +3467,13 @@
         <v>121627</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>280</v>
@@ -3503,13 +3482,13 @@
         <v>283690</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3503,13 @@
         <v>144937</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>126</v>
@@ -3539,10 +3518,10 @@
         <v>135405</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>84</v>
@@ -3605,13 +3584,13 @@
         <v>100623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3605,13 @@
         <v>109066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -3641,13 +3620,13 @@
         <v>147485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -3656,13 +3635,13 @@
         <v>256551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,7 +3697,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3730,13 +3709,13 @@
         <v>63710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -3745,13 +3724,13 @@
         <v>78519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -3760,13 +3739,13 @@
         <v>142229</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3760,13 @@
         <v>130889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>139</v>
@@ -3796,13 +3775,13 @@
         <v>147295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -3811,13 +3790,13 @@
         <v>278184</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3811,13 @@
         <v>152160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>145</v>
@@ -3847,13 +3826,13 @@
         <v>158392</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -3862,13 +3841,13 @@
         <v>310553</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,10 +3946,10 @@
         <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4005,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4038,13 +4017,13 @@
         <v>43433</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -4053,13 +4032,13 @@
         <v>63921</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -4068,13 +4047,13 @@
         <v>107354</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4068,13 @@
         <v>140885</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -4242,13 +4221,13 @@
         <v>141735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -4257,13 +4236,13 @@
         <v>172061</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>282</v>
@@ -4272,10 +4251,10 @@
         <v>313796</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>192</v>
@@ -4352,7 +4331,7 @@
         <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4361,13 +4340,13 @@
         <v>14333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -4376,13 +4355,13 @@
         <v>35424</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4376,13 @@
         <v>57096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -4412,13 +4391,13 @@
         <v>39174</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>85</v>
@@ -4430,10 +4409,10 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4427,13 @@
         <v>89061</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -4463,13 +4442,13 @@
         <v>83559</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -4478,13 +4457,13 @@
         <v>172620</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4478,13 @@
         <v>56701</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -4514,13 +4493,13 @@
         <v>71094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>118</v>
@@ -4529,13 +4508,13 @@
         <v>127796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4529,13 @@
         <v>169721</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>189</v>
@@ -4565,13 +4544,13 @@
         <v>206452</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>343</v>
@@ -4580,13 +4559,13 @@
         <v>376173</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,7 +4577,7 @@
         <v>362</v>
       </c>
       <c r="D33" s="7">
-        <v>393669</v>
+        <v>393670</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -4642,7 +4621,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4654,13 +4633,13 @@
         <v>12483</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -4669,13 +4648,13 @@
         <v>12902</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -4684,13 +4663,13 @@
         <v>25384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4684,13 @@
         <v>16458</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -4720,13 +4699,13 @@
         <v>29309</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -4735,13 +4714,13 @@
         <v>45767</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4735,13 @@
         <v>82362</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -4771,13 +4750,13 @@
         <v>83570</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>151</v>
@@ -4786,13 +4765,13 @@
         <v>165931</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4786,13 @@
         <v>95863</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>107</v>
@@ -4822,13 +4801,13 @@
         <v>114516</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>188</v>
@@ -4837,13 +4816,13 @@
         <v>210378</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4837,13 @@
         <v>324380</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>443</v>
@@ -4873,13 +4852,13 @@
         <v>472037</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>739</v>
@@ -4888,13 +4867,13 @@
         <v>796417</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4941,13 @@
         <v>247390</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="H40" s="7">
         <v>227</v>
@@ -4977,13 +4956,13 @@
         <v>247586</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M40" s="7">
         <v>461</v>
@@ -4992,13 +4971,13 @@
         <v>494976</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +4992,13 @@
         <v>589392</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H41" s="7">
         <v>466</v>
@@ -5028,13 +5007,13 @@
         <v>503078</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M41" s="7">
         <v>1034</v>
@@ -5043,13 +5022,13 @@
         <v>1092470</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5043,13 @@
         <v>682324</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="H42" s="7">
         <v>603</v>
@@ -5079,13 +5058,13 @@
         <v>657479</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M42" s="7">
         <v>1238</v>
@@ -5094,13 +5073,13 @@
         <v>1339803</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5094,13 @@
         <v>337827</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H43" s="7">
         <v>395</v>
@@ -5130,13 +5109,13 @@
         <v>421920</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M43" s="7">
         <v>699</v>
@@ -5145,13 +5124,13 @@
         <v>759747</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5145,13 @@
         <v>924941</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H44" s="7">
         <v>1162</v>
@@ -5181,13 +5160,13 @@
         <v>1253039</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M44" s="7">
         <v>2012</v>
@@ -5196,13 +5175,13 @@
         <v>2177980</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,7 +5237,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4066C0A1-9A4C-494A-AA6C-87385C0724CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C46C491-9731-4988-93E4-AD1A98928D1A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5297,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5404,13 +5383,13 @@
         <v>37123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5419,13 +5398,13 @@
         <v>26291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -5434,13 +5413,13 @@
         <v>63414</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5434,13 @@
         <v>84476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -5470,13 +5449,13 @@
         <v>85489</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>166</v>
@@ -5485,13 +5464,13 @@
         <v>169965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5485,13 @@
         <v>53144</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="H6" s="7">
         <v>65</v>
@@ -5521,13 +5500,13 @@
         <v>63391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>115</v>
@@ -5536,13 +5515,13 @@
         <v>116535</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5536,13 @@
         <v>17516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5572,13 +5551,13 @@
         <v>23027</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -5587,13 +5566,13 @@
         <v>40543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5587,13 @@
         <v>30803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -5623,13 +5602,13 @@
         <v>52192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -5638,13 +5617,13 @@
         <v>82994</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5691,13 @@
         <v>83302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5727,13 +5706,13 @@
         <v>47477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -5742,13 +5721,13 @@
         <v>130779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5742,13 @@
         <v>143400</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>158</v>
@@ -5778,13 +5757,13 @@
         <v>155799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -5793,13 +5772,13 @@
         <v>299198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5793,13 @@
         <v>114901</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>144</v>
@@ -5829,13 +5808,13 @@
         <v>137842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>256</v>
@@ -5844,13 +5823,13 @@
         <v>252743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5844,13 @@
         <v>28175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5880,13 +5859,13 @@
         <v>50672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -5895,13 +5874,13 @@
         <v>78847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5895,13 @@
         <v>43803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -5931,13 +5910,13 @@
         <v>85627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -5946,13 +5925,13 @@
         <v>129430</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +5987,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6020,13 +5999,13 @@
         <v>69538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -6035,13 +6014,13 @@
         <v>89725</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -6050,13 +6029,13 @@
         <v>159263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6050,13 @@
         <v>158467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -6086,13 +6065,13 @@
         <v>153525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -6101,13 +6080,13 @@
         <v>311992</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6101,13 @@
         <v>161596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>140</v>
@@ -6137,13 +6116,13 @@
         <v>139827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>294</v>
@@ -6152,13 +6131,13 @@
         <v>301423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6152,13 @@
         <v>50947</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -6188,13 +6167,13 @@
         <v>70712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -6203,13 +6182,13 @@
         <v>121660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6203,13 @@
         <v>81505</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
@@ -6239,13 +6218,13 @@
         <v>109444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>185</v>
@@ -6254,13 +6233,13 @@
         <v>190949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6295,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6328,13 +6307,13 @@
         <v>73790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -6343,13 +6322,13 @@
         <v>62380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -6358,13 +6337,13 @@
         <v>136171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,28 +6358,28 @@
         <v>143225</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>168</v>
       </c>
       <c r="I23" s="7">
-        <v>180537</v>
+        <v>180536</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>298</v>
@@ -6409,13 +6388,13 @@
         <v>323762</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6409,13 @@
         <v>156132</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -6445,13 +6424,13 @@
         <v>142659</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>459</v>
+        <v>123</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>460</v>
+        <v>188</v>
       </c>
       <c r="M24" s="7">
         <v>272</v>
@@ -6463,10 +6442,10 @@
         <v>461</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,28 +6460,28 @@
         <v>66311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>463</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
       </c>
       <c r="I25" s="7">
-        <v>94934</v>
+        <v>94933</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -6511,13 +6490,13 @@
         <v>161244</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,7 +6511,7 @@
         <v>111778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>470</v>
@@ -6553,7 +6532,7 @@
         <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>192</v>
@@ -6562,13 +6541,13 @@
         <v>212775</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,7 +6574,7 @@
         <v>540</v>
       </c>
       <c r="I27" s="7">
-        <v>581507</v>
+        <v>581506</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6636,13 +6615,13 @@
         <v>45161</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -6651,13 +6630,13 @@
         <v>35457</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>481</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -6666,13 +6645,13 @@
         <v>80617</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6666,13 @@
         <v>91601</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>487</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>78</v>
@@ -6702,13 +6681,13 @@
         <v>89249</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>160</v>
@@ -6717,13 +6696,13 @@
         <v>180851</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6717,13 @@
         <v>120917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H30" s="7">
         <v>106</v>
@@ -6753,13 +6732,13 @@
         <v>123027</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M30" s="7">
         <v>214</v>
@@ -6768,13 +6747,13 @@
         <v>243944</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6768,13 @@
         <v>74948</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -6804,13 +6783,13 @@
         <v>77087</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M31" s="7">
         <v>134</v>
@@ -6819,7 +6798,7 @@
         <v>152035</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>506</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>507</v>
@@ -6932,7 +6911,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6980,7 +6959,7 @@
         <v>524</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,16 +6971,16 @@
         <v>91</v>
       </c>
       <c r="D35" s="7">
-        <v>86660</v>
+        <v>86659</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H35" s="7">
         <v>77</v>
@@ -7010,13 +6989,13 @@
         <v>89473</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>168</v>
@@ -7025,13 +7004,13 @@
         <v>176132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7025,13 @@
         <v>146223</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H36" s="7">
         <v>183</v>
@@ -7061,13 +7040,13 @@
         <v>212691</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>342</v>
@@ -7076,13 +7055,13 @@
         <v>358914</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7076,13 @@
         <v>126341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="H37" s="7">
         <v>118</v>
@@ -7112,13 +7091,13 @@
         <v>141373</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M37" s="7">
         <v>251</v>
@@ -7127,13 +7106,13 @@
         <v>267715</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>545</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7127,13 @@
         <v>187219</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H38" s="7">
         <v>239</v>
@@ -7163,13 +7142,13 @@
         <v>289190</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M38" s="7">
         <v>435</v>
@@ -7178,13 +7157,13 @@
         <v>476409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7175,7 @@
         <v>601</v>
       </c>
       <c r="D39" s="7">
-        <v>567038</v>
+        <v>567037</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7252,13 +7231,13 @@
         <v>329509</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>309</v>
+        <v>552</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H40" s="7">
         <v>273</v>
@@ -7267,13 +7246,13 @@
         <v>281869</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M40" s="7">
         <v>586</v>
@@ -7282,13 +7261,13 @@
         <v>611378</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7282,13 @@
         <v>707829</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>564</v>
+        <v>428</v>
       </c>
       <c r="H41" s="7">
         <v>723</v>
@@ -7318,13 +7297,13 @@
         <v>754070</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="M41" s="7">
         <v>1398</v>
@@ -7333,13 +7312,13 @@
         <v>1461900</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7333,13 @@
         <v>752913</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H42" s="7">
         <v>768</v>
@@ -7369,13 +7348,13 @@
         <v>819437</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M42" s="7">
         <v>1493</v>
@@ -7384,13 +7363,13 @@
         <v>1572350</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>34</v>
+        <v>576</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7384,13 @@
         <v>364238</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>554</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>579</v>
+        <v>183</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H43" s="7">
         <v>420</v>
@@ -7420,13 +7399,13 @@
         <v>457805</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M43" s="7">
         <v>768</v>
@@ -7435,13 +7414,13 @@
         <v>822043</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>583</v>
+        <v>473</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>584</v>
+        <v>447</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7435,13 @@
         <v>564559</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H44" s="7">
         <v>697</v>
@@ -7471,13 +7450,13 @@
         <v>768957</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M44" s="7">
         <v>1236</v>
@@ -7486,13 +7465,13 @@
         <v>1333516</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7527,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -7570,7 +7549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5819373-BDA5-417C-93CC-5D173B9786F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D57EA0-C6BE-4CEB-93E2-510787A1352E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7587,7 +7566,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7694,13 +7673,13 @@
         <v>34727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>596</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -7709,13 +7688,13 @@
         <v>30588</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>599</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -7724,13 +7703,13 @@
         <v>65315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7724,13 @@
         <v>60504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -7760,13 +7739,13 @@
         <v>59008</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>607</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -7775,13 +7754,13 @@
         <v>119512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7775,13 @@
         <v>49193</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>606</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>612</v>
+        <v>441</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -7811,13 +7790,13 @@
         <v>49112</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -7826,13 +7805,13 @@
         <v>98305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7826,13 @@
         <v>24499</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>619</v>
+        <v>66</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -7862,13 +7841,13 @@
         <v>22437</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>113</v>
+        <v>615</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -7877,13 +7856,13 @@
         <v>46936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>618</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7877,13 @@
         <v>10421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -7913,13 +7892,13 @@
         <v>57449</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -7928,13 +7907,13 @@
         <v>67870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>529</v>
+        <v>628</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7981,13 @@
         <v>29499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -8017,13 +7996,13 @@
         <v>43965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -8032,13 +8011,13 @@
         <v>73464</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>639</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8032,13 @@
         <v>115943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="H11" s="7">
         <v>103</v>
@@ -8068,13 +8047,13 @@
         <v>107208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>646</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -8083,13 +8062,13 @@
         <v>223152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8083,13 @@
         <v>92361</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>652</v>
+        <v>116</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="H12" s="7">
         <v>107</v>
@@ -8119,13 +8098,13 @@
         <v>108725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="M12" s="7">
         <v>169</v>
@@ -8134,13 +8113,13 @@
         <v>201085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8134,13 @@
         <v>28211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>653</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>507</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -8170,13 +8149,13 @@
         <v>44503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -8185,13 +8164,13 @@
         <v>72714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8185,13 @@
         <v>33905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -8221,13 +8200,13 @@
         <v>73775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>668</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -8236,13 +8215,13 @@
         <v>107681</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>665</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>666</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,7 +8277,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8310,13 +8289,13 @@
         <v>51400</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>672</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>673</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -8325,13 +8304,13 @@
         <v>58846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -8340,13 +8319,13 @@
         <v>110246</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>672</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8340,13 @@
         <v>137376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>675</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -8376,13 +8355,13 @@
         <v>149406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>679</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -8391,13 +8370,13 @@
         <v>286782</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8391,13 @@
         <v>131588</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>687</v>
+        <v>614</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H18" s="7">
         <v>215</v>
@@ -8427,13 +8406,13 @@
         <v>143504</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M18" s="7">
         <v>341</v>
@@ -8442,13 +8421,13 @@
         <v>275093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>447</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8442,13 @@
         <v>62866</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>691</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -8478,13 +8457,13 @@
         <v>60438</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -8493,13 +8472,13 @@
         <v>123305</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,10 +8496,10 @@
         <v>698</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>699</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>700</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -8529,13 +8508,13 @@
         <v>92199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -8544,13 +8523,13 @@
         <v>161095</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>702</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8606,7 +8585,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8618,13 +8597,13 @@
         <v>44497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -8633,13 +8612,13 @@
         <v>52844</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>709</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -8648,13 +8627,13 @@
         <v>97341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>710</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8648,13 @@
         <v>153501</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H23" s="7">
         <v>268</v>
@@ -8684,13 +8663,13 @@
         <v>175901</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>717</v>
+        <v>543</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>718</v>
       </c>
       <c r="M23" s="7">
         <v>424</v>
@@ -8699,10 +8678,10 @@
         <v>329402</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>719</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>720</v>
@@ -8726,7 +8705,7 @@
         <v>722</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>723</v>
       </c>
       <c r="H24" s="7">
         <v>304</v>
@@ -8735,13 +8714,13 @@
         <v>200075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M24" s="7">
         <v>487</v>
@@ -8750,13 +8729,13 @@
         <v>382932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>725</v>
+        <v>78</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8771,13 +8750,13 @@
         <v>87098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>531</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -8786,13 +8765,13 @@
         <v>97511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>731</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>729</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
@@ -8801,13 +8780,13 @@
         <v>184609</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>732</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8822,13 +8801,13 @@
         <v>122155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>734</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>735</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>647</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -8840,10 +8819,10 @@
         <v>736</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>737</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>372</v>
@@ -8852,13 +8831,13 @@
         <v>286668</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8905,13 @@
         <v>39729</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -8941,13 +8920,13 @@
         <v>38335</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>745</v>
+        <v>519</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -8956,13 +8935,13 @@
         <v>78064</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8956,13 @@
         <v>120561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>752</v>
+        <v>687</v>
       </c>
       <c r="H29" s="7">
         <v>165</v>
@@ -8992,13 +8971,13 @@
         <v>98721</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>753</v>
+        <v>492</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>19</v>
+        <v>749</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>750</v>
       </c>
       <c r="M29" s="7">
         <v>290</v>
@@ -9007,13 +8986,13 @@
         <v>219282</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,13 +9007,13 @@
         <v>154570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>539</v>
+        <v>755</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H30" s="7">
         <v>272</v>
@@ -9043,13 +9022,13 @@
         <v>161080</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>450</v>
@@ -9058,10 +9037,10 @@
         <v>315650</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>761</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>762</v>
@@ -9100,7 +9079,7 @@
         <v>767</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>768</v>
+        <v>24</v>
       </c>
       <c r="M31" s="7">
         <v>322</v>
@@ -9109,13 +9088,13 @@
         <v>226622</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>699</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9130,13 +9109,13 @@
         <v>125723</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H32" s="7">
         <v>261</v>
@@ -9145,13 +9124,13 @@
         <v>151575</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>774</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>775</v>
+        <v>538</v>
       </c>
       <c r="M32" s="7">
         <v>401</v>
@@ -9160,13 +9139,13 @@
         <v>277298</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>777</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,7 +9201,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9234,13 +9213,13 @@
         <v>28301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H34" s="7">
         <v>64</v>
@@ -9249,13 +9228,13 @@
         <v>35806</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>780</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>782</v>
       </c>
       <c r="M34" s="7">
         <v>103</v>
@@ -9264,13 +9243,13 @@
         <v>64107</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>784</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>345</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,13 +9264,13 @@
         <v>103282</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>787</v>
       </c>
       <c r="H35" s="7">
         <v>223</v>
@@ -9300,13 +9279,13 @@
         <v>230009</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>141</v>
+        <v>786</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M35" s="7">
         <v>365</v>
@@ -9315,13 +9294,13 @@
         <v>333291</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,13 +9315,13 @@
         <v>178886</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>792</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>793</v>
+        <v>346</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>794</v>
+        <v>87</v>
       </c>
       <c r="H36" s="7">
         <v>425</v>
@@ -9351,13 +9330,13 @@
         <v>231144</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="M36" s="7">
         <v>685</v>
@@ -9366,13 +9345,13 @@
         <v>410030</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9387,13 +9366,13 @@
         <v>164189</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>78</v>
+        <v>797</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>801</v>
+        <v>589</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>538</v>
+        <v>798</v>
       </c>
       <c r="H37" s="7">
         <v>395</v>
@@ -9402,13 +9381,13 @@
         <v>211611</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>799</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>51</v>
+        <v>577</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="M37" s="7">
         <v>639</v>
@@ -9417,13 +9396,13 @@
         <v>375799</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>803</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>804</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9438,13 +9417,13 @@
         <v>199601</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H38" s="7">
         <v>535</v>
@@ -9453,13 +9432,13 @@
         <v>275316</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>806</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>808</v>
       </c>
       <c r="M38" s="7">
         <v>846</v>
@@ -9468,13 +9447,13 @@
         <v>474917</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>810</v>
+        <v>715</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9542,13 +9521,13 @@
         <v>228153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>812</v>
+        <v>446</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>741</v>
+        <v>809</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>813</v>
+        <v>181</v>
       </c>
       <c r="H40" s="7">
         <v>342</v>
@@ -9557,13 +9536,13 @@
         <v>260385</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -9572,13 +9551,13 @@
         <v>488537</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>817</v>
+        <v>134</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,13 +9572,13 @@
         <v>691167</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>421</v>
+        <v>815</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>821</v>
+        <v>76</v>
       </c>
       <c r="H41" s="7">
         <v>1004</v>
@@ -9608,13 +9587,13 @@
         <v>820255</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M41" s="7">
         <v>1670</v>
@@ -9623,13 +9602,13 @@
         <v>1511422</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>824</v>
+        <v>215</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>768</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,10 +9626,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H42" s="7">
         <v>1354</v>
@@ -9659,13 +9638,13 @@
         <v>893640</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="M42" s="7">
         <v>2183</v>
@@ -9674,13 +9653,13 @@
         <v>1683095</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>832</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9695,13 +9674,13 @@
         <v>478561</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>834</v>
+        <v>413</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H43" s="7">
         <v>890</v>
@@ -9710,13 +9689,13 @@
         <v>551424</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>202</v>
+        <v>829</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="M43" s="7">
         <v>1435</v>
@@ -9725,13 +9704,13 @@
         <v>1029985</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>367</v>
+        <v>506</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>612</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9746,13 +9725,13 @@
         <v>560701</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>840</v>
+        <v>205</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H44" s="7">
         <v>1294</v>
@@ -9761,13 +9740,13 @@
         <v>814828</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>842</v>
+        <v>55</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>215</v>
+        <v>835</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="M44" s="7">
         <v>1963</v>
@@ -9776,13 +9755,13 @@
         <v>1375529</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,7 +9817,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
